--- a/pdarts.xlsx
+++ b/pdarts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\XNAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2DA4C8-33D7-4E47-AE91-ACC2B9DC2053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F2E57-1767-4D84-9D84-EE138CEDDE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Genotype(normal=[('sep_conv_3x3', 0), ('dil_conv_3x3', 1), ('skip_connect', 0), ('sep_conv_3x3', 1), ('skip_connect', 0), ('dil_conv_5x5', 1), ('sep_conv_3x3', 0), ('sep_conv_5x5', 2)], normal_concat=range(2, 6), reduce=[('max_pool_3x3', 0), ('skip_connect', 1), ('avg_pool_3x3', 0), ('dil_conv_5x5', 1), ('avg_pool_3x3', 0), ('avg_pool_3x3', 1), ('dil_conv_3x3', 1), ('sep_conv_5x5', 2)], reduce_concat=range(2, 6))</t>
-  </si>
-  <si>
-    <t> Genotype(normal=[('sep_conv_3x3', 0), ('dil_conv_5x5', 1), ('sep_conv_3x3', 0), ('sep_conv_3x3', 2), ('sep_conv_3x3', 0), ('dil_conv_3x3', 1), ('sep_conv_3x3', 1), ('dil_conv_5x5', 2)], normal_concat=range(2, 6), reduce=[('skip_connect', 0), ('dil_conv_3x3', 1), ('sep_conv_5x5', 1), ('sep_conv_5x5', 2), ('skip_connect', 1), ('sep_conv_3x3', 2), ('max_pool_3x3', 0), ('sep_conv_5x5', 3)], reduce_concat=range(2, 6))</t>
+    <t>Genotype(normal=[('skip_connect', 0), ('sep_conv_3x3', 1), ('skip_connect', 0), ('sep_conv_3x3', 1), ('sep_conv_3x3', 0), ('sep_conv_3x3', 1), ('dil_conv_3x3', 1), ('sep_conv_3x3', 4)], normal_concat=range(2, 6), reduce=[('max_pool_3x3', 0), ('sep_conv_5x5', 1), ('avg_pool_3x3', 0), ('dil_conv_5x5', 2), ('max_pool_3x3', 0), ('dil_conv_3x3', 1), ('avg_pool_3x3', 0), ('skip_connect', 1)], reduce_concat=range(2, 6))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Genotype(normal=[[('skip_connect', 0), ('sep_conv_3x3', 1)], [('sep_conv_3x3', 0), ('dil_conv_3x3', 2)], [('skip_connect', 0), ('sep_conv_3x3', 1)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('dil_conv_3x3', 1)], [('avg_pool_3x3', 0), ('skip_connect', 1)], [('dil_conv_3x3', 0), ('dil_conv_5x5', 2)], [('max_pool_3x3', 0), ('skip_connect', 3)]], reduce_concat=range(2, 6))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Genotype(normal=[[('sep_conv_3x3', 0), ('dil_conv_5x5', 1)], [('sep_conv_3x3', 0), ('sep_conv_3x3', 2)], [('sep_conv_3x3', 0), ('dil_conv_3x3', 1)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 2)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 0), ('dil_conv_3x3', 1)], [('sep_conv_5x5', 1), ('sep_conv_5x5', 2)], [('skip_connect', 1), ('sep_conv_3x3', 2)], [('max_pool_3x3', 0), ('sep_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 0), ('dil_conv_3x3', 1)], [('skip_connect', 0), ('sep_conv_3x3', 1)], [('skip_connect', 0), ('dil_conv_5x5', 1)], [('sep_conv_3x3', 0), ('sep_conv_5x5', 2)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('skip_connect', 1)], [('avg_pool_3x3', 0), ('dil_conv_5x5', 1)], [('avg_pool_3x3', 0), ('avg_pool_3x3', 1)], [('dil_conv_3x3', 1), ('sep_conv_5x5', 2)]], reduce_concat=range(2, 6))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -373,7 +383,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -399,11 +409,17 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
